--- a/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-14.91322908544826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-17.39547629730312</v>
+        <v>-17.39547629730313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2232596525009944</v>
@@ -649,7 +649,7 @@
         <v>-0.2225931913349109</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2853047092091212</v>
+        <v>-0.2853047092091213</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.99621916013827</v>
+        <v>-19.36503932082159</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.56440221158721</v>
+        <v>-17.61930784331189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.66981729644396</v>
+        <v>-20.10960918755638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-22.17422755968002</v>
+        <v>-22.09362974667897</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2731732337559585</v>
+        <v>-0.2746198866309265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2579069602990355</v>
+        <v>-0.259037584406913</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2843561325342703</v>
+        <v>-0.2898833725835672</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.347263404594155</v>
+        <v>-0.3435364674153919</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-11.36477656202999</v>
+        <v>-11.50470647026088</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.061674052714206</v>
+        <v>-9.396201658101701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-10.17057382403898</v>
+        <v>-10.1669888068475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-12.87407341744018</v>
+        <v>-12.14512970841995</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1705173123017261</v>
+        <v>-0.1731881697525925</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1432668433829203</v>
+        <v>-0.1469522674243056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1578318571264516</v>
+        <v>-0.1566266135754656</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2209756054375188</v>
+        <v>-0.2112823136789338</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-5.862540783607861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-5.548566210786376</v>
+        <v>-5.548566210786399</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.09699734716699875</v>
@@ -749,7 +749,7 @@
         <v>-0.0665892380601829</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0656716335894538</v>
+        <v>-0.06567163358945406</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.26346858680675</v>
+        <v>-11.37474005438315</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.651308635706523</v>
+        <v>-7.948241855313815</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.298956289483602</v>
+        <v>-8.446163559139761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.756560981337972</v>
+        <v>-7.59415485731961</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1224313362313862</v>
+        <v>-0.1237230080461646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08499317291755837</v>
+        <v>-0.0873029765430899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09268061745516282</v>
+        <v>-0.0950017418513457</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09077550214838155</v>
+        <v>-0.08849814297642247</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.470007872604505</v>
+        <v>-6.539905618870989</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-3.121643069750619</v>
+        <v>-3.323138065935904</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.353509784333961</v>
+        <v>-3.716977961826343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.26683793901009</v>
+        <v>-3.04725208539526</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.07155673396493924</v>
+        <v>-0.07252068470696704</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0353554436696032</v>
+        <v>-0.03747040977412949</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03849257213148246</v>
+        <v>-0.04333170195557717</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.03911088969568287</v>
+        <v>-0.03688791556331033</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.435885592509251</v>
+        <v>-9.344757720083106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.068649146490111</v>
+        <v>-4.939429537666797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.749320223435394</v>
+        <v>-6.00243891303456</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.320409384256169</v>
+        <v>-5.293865646351594</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.102285242829478</v>
+        <v>-0.1007031649308996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05394794044289224</v>
+        <v>-0.05281629858690968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06181222681202642</v>
+        <v>-0.06409559897166818</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05967234969959462</v>
+        <v>-0.05899067925277347</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.146812754097319</v>
+        <v>-1.017898471405809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.991768573539056</v>
+        <v>3.378598504617082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.834910509767654</v>
+        <v>1.95447443553235</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.457274034848193</v>
+        <v>1.46744727902216</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.01300247937280022</v>
+        <v>-0.01138406653892265</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03319431941641764</v>
+        <v>0.037850535030176</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02046807145114795</v>
+        <v>0.02181464951390007</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.01696332041929116</v>
+        <v>0.01707179889069283</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-9.124947984883025</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-8.799367716949325</v>
+        <v>-8.799367716949336</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1492271823438772</v>
@@ -949,7 +949,7 @@
         <v>-0.1086827170722873</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1082393504847709</v>
+        <v>-0.108239350484771</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.66384889459873</v>
+        <v>-14.44960736317985</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.04026043430987</v>
+        <v>-12.31776554228384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.1101147386645</v>
+        <v>-11.1928712138141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-10.58147248441127</v>
+        <v>-10.58983059575052</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1725927613452854</v>
+        <v>-0.1709872665268461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1429361862429404</v>
+        <v>-0.1457543019654001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1315818772082537</v>
+        <v>-0.1320038882641405</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.129043103129977</v>
+        <v>-0.1294252412689131</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.51344914976781</v>
+        <v>-10.62654794118976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-8.093001711429853</v>
+        <v>-8.138811583188673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-7.1539873152855</v>
+        <v>-7.248716980476787</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-6.945173115967572</v>
+        <v>-6.962215460948038</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1257517399123695</v>
+        <v>-0.1280689188119879</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0981602485663286</v>
+        <v>-0.09885119015718528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.086390722925952</v>
+        <v>-0.0875602266928462</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.08712264102611313</v>
+        <v>-0.08648975228988082</v>
       </c>
     </row>
     <row r="16">
